--- a/occupations/occupations.xlsx
+++ b/occupations/occupations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\pcibex-hun\occupations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\pcibex-hun\occupations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD6BEB9-E1CF-429C-99EE-B9A699CD5898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DD086-C654-4B1F-8A4D-A97E8BDF99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8B24956-A623-3F44-AFA6-8B81FDC821E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C8B24956-A623-3F44-AFA6-8B81FDC821E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
   <si>
     <t>工程师</t>
   </si>
@@ -516,13 +517,31 @@
   </si>
   <si>
     <t>waiter*</t>
+  </si>
+  <si>
+    <t>copilot</t>
+  </si>
+  <si>
+    <t>Foglalkozás</t>
+  </si>
+  <si>
+    <t>Érték</t>
+  </si>
+  <si>
+    <t>Értékelés férfi–női skála szerint</t>
+  </si>
+  <si>
+    <t>gemini</t>
+  </si>
+  <si>
+    <t>chatgpt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,6 +556,31 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,18 +605,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -657,6 +737,39 @@
         <scheme val="major"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -671,16 +784,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}" name="Table1" displayName="Table1" ref="A1:D54" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Normal">
-  <autoFilter ref="A1:D54" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}" name="Table1" displayName="Table1" ref="A1:G54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Normal">
+  <autoFilter ref="A1:G54" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
-    <sortCondition ref="B1:B54"/>
+    <sortCondition ref="A1:A54"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE1ABF9B-FC07-4BB7-82F7-818875D3D986}" name="#" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F4EC8649-006B-4D3B-99F2-6171DC525063}" name="zh" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2BE7B26A-7FBE-433A-87E7-BC6E77A8E07D}" name="en" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A79E8B33-8C93-4D6D-91A7-966A094A0207}" name="hu" dataDxfId="0" dataCellStyle="Normal"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BE1ABF9B-FC07-4BB7-82F7-818875D3D986}" name="#" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F4EC8649-006B-4D3B-99F2-6171DC525063}" name="zh" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2BE7B26A-7FBE-433A-87E7-BC6E77A8E07D}" name="en" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A79E8B33-8C93-4D6D-91A7-966A094A0207}" name="hu" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00F9277E-0573-40DB-A626-EED234561349}" name="chatgpt" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{8EE13847-876A-40C9-BF7C-987A2F42552F}" name="copilot" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{A51ECDF0-9295-4D00-9E2B-1F6937823AA6}" name="gemini" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB177F-89E7-484D-8DFE-C1C3D6C18374}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1014,666 +1130,1117 @@
     <col min="1" max="1" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E29" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="E47" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>16</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>32</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>19</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1686,82 +2253,532 @@
       <c r="D49" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>42</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>33</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA8CC65-02D4-4146-A3AE-81A5A52A0CEB}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="6">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="6">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="6">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/occupations/occupations.xlsx
+++ b/occupations/occupations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\pcibex-hun\occupations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\pcibex-hun\occupations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DD086-C654-4B1F-8A4D-A97E8BDF99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F898BA-6970-46E2-AC78-1291579D0415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C8B24956-A623-3F44-AFA6-8B81FDC821E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8B24956-A623-3F44-AFA6-8B81FDC821E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>工程师</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>chatgpt</t>
+  </si>
+  <si>
+    <t>deepseek</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,18 +633,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -670,6 +672,24 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -784,19 +804,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}" name="Table1" displayName="Table1" ref="A1:G54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Normal">
-  <autoFilter ref="A1:G54" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Normal">
+  <autoFilter ref="A1:H54" xr:uid="{34CE14E9-1650-4C3D-9E3C-E06DAC5490DA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
     <sortCondition ref="A1:A54"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BE1ABF9B-FC07-4BB7-82F7-818875D3D986}" name="#" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F4EC8649-006B-4D3B-99F2-6171DC525063}" name="zh" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2BE7B26A-7FBE-433A-87E7-BC6E77A8E07D}" name="en" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A79E8B33-8C93-4D6D-91A7-966A094A0207}" name="hu" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{00F9277E-0573-40DB-A626-EED234561349}" name="chatgpt" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BE1ABF9B-FC07-4BB7-82F7-818875D3D986}" name="#" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F4EC8649-006B-4D3B-99F2-6171DC525063}" name="zh" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2BE7B26A-7FBE-433A-87E7-BC6E77A8E07D}" name="en" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A79E8B33-8C93-4D6D-91A7-966A094A0207}" name="hu" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00F9277E-0573-40DB-A626-EED234561349}" name="chatgpt" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{8EE13847-876A-40C9-BF7C-987A2F42552F}" name="copilot" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{A51ECDF0-9295-4D00-9E2B-1F6937823AA6}" name="gemini" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9CAAABDF-E97A-4A9A-A923-DD6F3C97C7E5}" name="deepseek" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1119,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB177F-89E7-484D-8DFE-C1C3D6C18374}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1157,7 @@
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1158,8 +1179,11 @@
       <c r="G1" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1181,8 +1205,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1204,8 +1231,11 @@
       <c r="G3" s="1">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1227,8 +1257,11 @@
       <c r="G4" s="1">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1250,8 +1283,11 @@
       <c r="G5" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1273,8 +1309,11 @@
       <c r="G6" s="1">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1296,8 +1335,11 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1319,8 +1361,11 @@
       <c r="G8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1342,8 +1387,11 @@
       <c r="G9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1365,8 +1413,11 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1388,8 +1439,11 @@
       <c r="G11" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1411,8 +1465,11 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1434,8 +1491,11 @@
       <c r="G13" s="1">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1457,8 +1517,11 @@
       <c r="G14" s="1">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1480,8 +1543,11 @@
       <c r="G15" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1503,8 +1569,11 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1526,8 +1595,11 @@
       <c r="G17" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1549,8 +1621,11 @@
       <c r="G18" s="1">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1572,8 +1647,11 @@
       <c r="G19" s="1">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1595,8 +1673,11 @@
       <c r="G20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1618,8 +1699,11 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1641,8 +1725,11 @@
       <c r="G22" s="1">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1664,8 +1751,11 @@
       <c r="G23" s="1">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1687,8 +1777,11 @@
       <c r="G24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1710,8 +1803,11 @@
       <c r="G25" s="1">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1733,8 +1829,11 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1756,8 +1855,11 @@
       <c r="G27" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1779,8 +1881,11 @@
       <c r="G28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1802,8 +1907,11 @@
       <c r="G29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1825,8 +1933,11 @@
       <c r="G30" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1848,8 +1959,11 @@
       <c r="G31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1871,8 +1985,11 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1894,8 +2011,11 @@
       <c r="G33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1917,8 +2037,11 @@
       <c r="G34" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1940,8 +2063,11 @@
       <c r="G35" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1963,8 +2089,11 @@
       <c r="G36" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1986,8 +2115,11 @@
       <c r="G37" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2009,8 +2141,11 @@
       <c r="G38" s="1">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2032,8 +2167,11 @@
       <c r="G39" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2055,8 +2193,11 @@
       <c r="G40" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2078,8 +2219,11 @@
       <c r="G41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2101,8 +2245,11 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2124,8 +2271,11 @@
       <c r="G43" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2147,8 +2297,11 @@
       <c r="G44" s="1">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="4">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2170,8 +2323,11 @@
       <c r="G45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2193,8 +2349,11 @@
       <c r="G46" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2216,8 +2375,11 @@
       <c r="G47" s="1">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="4">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2239,8 +2401,11 @@
       <c r="G48" s="1">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2262,8 +2427,11 @@
       <c r="G49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2285,8 +2453,11 @@
       <c r="G50" s="1">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2308,8 +2479,11 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>149</v>
       </c>
@@ -2317,8 +2491,9 @@
         <v>147</v>
       </c>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>146</v>
       </c>
@@ -2326,8 +2501,9 @@
         <v>148</v>
       </c>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>150</v>
       </c>
@@ -2335,14 +2511,15 @@
         <v>154</v>
       </c>
       <c r="G54" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58"/>
     </row>
   </sheetData>
